--- a/academycity/data/avic/datasets/excel/conference/output/HighTech/2018_Exports_o.xlsx
+++ b/academycity/data/avic/datasets/excel/conference/output/HighTech/2018_Exports_o.xlsx
@@ -3855,7 +3855,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -7358,7 +7358,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -10801,7 +10801,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -14244,7 +14244,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -17746,7 +17746,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -21610,7 +21610,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -25492,7 +25492,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -29364,7 +29364,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -33236,7 +33236,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -37108,7 +37108,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -39372,7 +39372,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -42704,7 +42704,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -46171,7 +46171,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C144" t="n">
